--- a/TestDataLC.xlsx
+++ b/TestDataLC.xlsx
@@ -1,43 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Lenovo\eclipse-workspace\josephsBevDev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\EclipseRep\gitrepository\josephsBevDev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D76CB6-66F5-4470-A5D4-4B8CF5AF5E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4D7525-6C9C-47E1-B51F-FF1864013947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HeaderValidation" sheetId="14" r:id="rId1"/>
     <sheet name="addToWishList" sheetId="15" r:id="rId2"/>
-    <sheet name="AddAProductBeforeSignIn" sheetId="16" r:id="rId3"/>
-    <sheet name="SearchBar" sheetId="17" r:id="rId4"/>
-    <sheet name="NewUserSignup" sheetId="18" r:id="rId5"/>
-    <sheet name="SelectAStore" sheetId="20" r:id="rId6"/>
-    <sheet name="AccountModule" sheetId="21" r:id="rId7"/>
-    <sheet name="Newsletter" sheetId="22" r:id="rId8"/>
+    <sheet name="addToCart" sheetId="25" r:id="rId3"/>
+    <sheet name="AddAProductBeforeSignIn" sheetId="16" r:id="rId4"/>
+    <sheet name="SearchBar" sheetId="17" r:id="rId5"/>
+    <sheet name="NewUserSignup" sheetId="18" r:id="rId6"/>
+    <sheet name="SelectAStore" sheetId="20" r:id="rId7"/>
+    <sheet name="AccountModule" sheetId="21" r:id="rId8"/>
+    <sheet name="Newsletter" sheetId="22" r:id="rId9"/>
+    <sheet name="DeliveryWithin20Miles" sheetId="23" r:id="rId10"/>
+    <sheet name="DeliveryOutside20Miles" sheetId="24" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t>Liquor</t>
   </si>
@@ -229,6 +222,22 @@
   </si>
   <si>
     <t>SMIRNOFF 100 - 5016D</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>Rose Garden Dr Tolendo
+Toledo, Ohio 43623</t>
+  </si>
+  <si>
+    <t>Bowling Green State University Bowling Green, OH 43403
+Toledo, Ohio 43403
+United States</t>
+  </si>
+  <si>
+    <t>8th Cross Street Nui Han, Toledo, Ohio 43403
+United States</t>
   </si>
 </sst>
 </file>
@@ -273,13 +282,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -562,15 +577,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -584,7 +599,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -598,34 +613,95 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE94E905-94BC-4B4E-998C-475A7DA98A41}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BDDD7C-B6A1-4E4E-B573-DC67AB84562D}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="43.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -638,12 +714,15 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="14.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -666,7 +745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -683,18 +762,18 @@
         <v>13</v>
       </c>
       <c r="F2">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="G2">
         <v>1234</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -705,21 +784,85 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793E03B5-DDF0-4A1E-8D23-6A4F4B96EDB5}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="14.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>1223</v>
+      </c>
+      <c r="G2">
+        <v>1234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29BB2AC-FB51-4BA9-8E57-9DE7B3CB45C8}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -733,7 +876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -752,7 +895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AD1E5A-C95B-4D06-8C98-084004111689}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -760,13 +903,13 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -774,7 +917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -782,7 +925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -790,7 +933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -800,7 +943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916D0CE5-FA8D-42F0-9D00-7003A3B038C2}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -808,9 +951,9 @@
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -821,7 +964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -837,7 +980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA91E418-6AE7-48D7-A590-0DD85460AD7E}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -845,14 +988,14 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.6328125" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -863,7 +1006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -879,7 +1022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342D75EF-592B-4713-BF39-C5CEF0A80AED}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -887,12 +1030,12 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -927,7 +1070,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -972,20 +1115,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F91A19-D3E0-4855-AC6C-E57DC89242F7}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>52</v>
       </c>
